--- a/Main/Archivos/Archivos_inventarios/reporte_inventario.xlsx
+++ b/Main/Archivos/Archivos_inventarios/reporte_inventario.xlsx
@@ -486,43 +486,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sabritas</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+          <t>sabritras</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>18</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>coca-cola</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>pepsi</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="n">
+        <v>56</v>
+      </c>
+      <c r="H2" t="n">
+        <v>43</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -533,48 +521,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>coca</t>
+          <t>pa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>coca</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>sabritras</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>coca-cola</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>pepsi</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="n">
+        <v>56</v>
+      </c>
+      <c r="H3" t="n">
+        <v>43</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
